--- a/Chapter_04/Chapter_4_Table_S4.3.xlsx
+++ b/Chapter_04/Chapter_4_Table_S4.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crtuser\OneDrive - National University of Ireland, Galway\Desktop\Dropbox\@John O'Grady\@Thesis\Supplementary\Chapter_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C0F459E-303F-4EEC-A4FB-75C96BD5EA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F53399F-6BC3-495C-9E03-4BE866BD1038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49170" yWindow="-1830" windowWidth="29040" windowHeight="15720" xr2:uid="{DD59F4E6-2BC0-4356-9735-1F3269CEF456}"/>
+    <workbookView xWindow="20370" yWindow="-1815" windowWidth="29040" windowHeight="15720" xr2:uid="{9381493B-0B25-40BF-9710-F3B3FB834606}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter_4_Table_S4.3" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
     <t>12 - 24</t>
   </si>
   <si>
-    <t>O'Grady et al., (2025)</t>
+    <t>OGR25-BTB</t>
   </si>
   <si>
     <t>Natural</t>
@@ -388,7 +388,7 @@
     <t>0 - 6</t>
   </si>
   <si>
-    <t>Wiarda et al., (2020)</t>
+    <t>WIA20-BTB</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -499,7 +499,7 @@
     <t>A6511_W-1</t>
   </si>
   <si>
-    <t>McLoughlin et al., (2021)</t>
+    <t>MCL21-BTB</t>
   </si>
   <si>
     <t>A6511</t>
@@ -622,7 +622,7 @@
     <t>A016_CON</t>
   </si>
   <si>
-    <t>McLoughlin et al., (2014)</t>
+    <t>MCL14-BTB</t>
   </si>
   <si>
     <t>F</t>
@@ -729,9 +729,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -797,23 +795,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB88D149-4093-4EF1-8DF6-1E12ABF68546}" name="Table3" displayName="Table3" ref="A2:L164" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D498FE03-0C58-4C85-8826-FDB86BE2234C}" name="Table3" displayName="Table3" ref="A2:L164" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A2:L164" xr:uid="{10F58C58-F7E0-4908-8FDF-C0CC33CCEA61}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{ECE8226E-B326-4848-81C2-F4D27158F88A}" name="Sample" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{51B793FC-91BE-4503-822C-57359BC7423D}" name="Condition" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{E4150540-DDA0-4C17-B985-02F37E625FC9}" name="Age" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{DA03764B-7267-421C-9E91-B9C71AE478EE}" name="Study" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{AFE2CD0B-8398-4D63-B4DC-1436902F9804}" name="Infection_administration" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{984ACB32-DEFC-4CD8-A520-89BF03E01603}" name="Sex" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{033625D1-6374-46AC-9C73-3627A3CAE1FE}" name="Location" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{43E519FC-A8F0-4D8F-AA04-006664C37034}" name="Tissue" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{5A9C86DF-CC7E-4228-83AE-28E3743779E2}" name="Animal_Code" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{CE341F3E-A299-43DB-95DD-5F27607541D2}" name="Genotype PC1 coordiante" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{D86D6C7D-570F-4E82-8C9A-67871C40C417}" name="Genotype PC2 coordinate" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{02EEF043-1B7D-4C5C-952B-FF8D83F577B0}" name="CV Fold" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7775E111-CC2C-4E40-A7ED-7D14B01B348B}" name="Sample" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E5DE8BE8-844B-4FE8-BF34-8942A2EEA2AF}" name="Condition" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{B990DD08-98DB-4701-B752-05771C7330A8}" name="Age" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{0C2B2AB1-D5E7-4316-8751-ACF550B1F7C6}" name="Study" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C5BBCAE5-76C7-47AA-A9C2-15150615779A}" name="Infection_administration" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{0F3682CB-2496-495D-9D06-965DB4D7FC5B}" name="Sex" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{7733843F-F88F-45B1-BEEB-4E2B5F3A7AA7}" name="Location" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{6DFE2BAB-78D4-4623-B793-6233020D64CF}" name="Tissue" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{B9471DFA-7B8A-442A-B269-F7F4C49C06C9}" name="Animal_Code" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{F8758CDD-3473-4FF5-98AD-25B5C2203FB6}" name="Genotype PC1 coordiante" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{5AC3191D-1049-4203-9811-A0BF0B92A3CE}" name="Genotype PC2 coordinate" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{1C0A724F-34BB-4E22-A5BF-DFC857D43BF6}" name="CV Fold" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1133,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B4FE10-4020-41D0-A1FE-BD85E967D7D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C03A6A-F492-4E70-80E5-4BC161852B82}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L164"/>
   <sheetViews>
@@ -1169,7 +1167,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1235,11 +1233,11 @@
       <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="7">
-        <v>-0.102966674092623</v>
-      </c>
-      <c r="K3" s="7">
-        <v>-0.237213973701526</v>
+      <c r="J3">
+        <v>-0.10726683220654699</v>
+      </c>
+      <c r="K3">
+        <v>-0.117214344055162</v>
       </c>
       <c r="L3" s="5">
         <v>5</v>
@@ -1273,11 +1271,11 @@
       <c r="I4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="7">
-        <v>-0.11408152273472399</v>
-      </c>
-      <c r="K4" s="7">
-        <v>-0.272169097529463</v>
+      <c r="J4">
+        <v>-0.116946650603323</v>
+      </c>
+      <c r="K4">
+        <v>-0.107611135537146</v>
       </c>
       <c r="L4" s="5">
         <v>2</v>
@@ -1311,11 +1309,11 @@
       <c r="I5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="7">
-        <v>-1.6279200143320301E-2</v>
-      </c>
-      <c r="K5" s="7">
-        <v>-5.6084616632789103E-2</v>
+      <c r="J5">
+        <v>-1.5026776319812E-2</v>
+      </c>
+      <c r="K5">
+        <v>-6.1264953363478203E-2</v>
       </c>
       <c r="L5" s="5">
         <v>1</v>
@@ -1349,11 +1347,11 @@
       <c r="I6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="7">
-        <v>-1.4237360040806399E-2</v>
-      </c>
-      <c r="K6" s="7">
-        <v>-6.4274753256500006E-2</v>
+      <c r="J6">
+        <v>-3.32469481321317E-2</v>
+      </c>
+      <c r="K6">
+        <v>-4.4151870608069299E-2</v>
       </c>
       <c r="L6" s="5">
         <v>2</v>
@@ -1387,11 +1385,11 @@
       <c r="I7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="7">
-        <v>-9.1026553485318296E-2</v>
-      </c>
-      <c r="K7" s="7">
-        <v>-0.234583749305186</v>
+      <c r="J7">
+        <v>-9.7828100755454395E-2</v>
+      </c>
+      <c r="K7">
+        <v>-9.9590171507393202E-2</v>
       </c>
       <c r="L7" s="5">
         <v>1</v>
@@ -1425,11 +1423,11 @@
       <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="7">
-        <v>-9.2044647219229794E-2</v>
-      </c>
-      <c r="K8" s="7">
-        <v>-0.23903335318027599</v>
+      <c r="J8">
+        <v>-8.4701396666929801E-2</v>
+      </c>
+      <c r="K8">
+        <v>-9.7229264899083206E-2</v>
       </c>
       <c r="L8" s="5">
         <v>2</v>
@@ -1463,11 +1461,11 @@
       <c r="I9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="7">
-        <v>-0.12781773490556</v>
-      </c>
-      <c r="K9" s="7">
-        <v>-0.25401214371745701</v>
+      <c r="J9">
+        <v>-0.11243202166596999</v>
+      </c>
+      <c r="K9">
+        <v>-0.100972598444416</v>
       </c>
       <c r="L9" s="5">
         <v>5</v>
@@ -1501,11 +1499,11 @@
       <c r="I10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="7">
-        <v>-9.5235944907868006E-2</v>
-      </c>
-      <c r="K10" s="7">
-        <v>-0.22279926639958</v>
+      <c r="J10">
+        <v>-9.6075050611193605E-2</v>
+      </c>
+      <c r="K10">
+        <v>-0.11690627326605001</v>
       </c>
       <c r="L10" s="5">
         <v>2</v>
@@ -1539,11 +1537,11 @@
       <c r="I11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="7">
-        <v>1.0415358276356101E-2</v>
-      </c>
-      <c r="K11" s="7">
-        <v>-0.12852293700100501</v>
+      <c r="J11">
+        <v>-3.1758832925105999E-2</v>
+      </c>
+      <c r="K11">
+        <v>-0.15462204144507499</v>
       </c>
       <c r="L11" s="5">
         <v>3</v>
@@ -1577,11 +1575,11 @@
       <c r="I12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="7">
-        <v>-4.7699822469555099E-2</v>
-      </c>
-      <c r="K12" s="7">
-        <v>-9.4232150137496098E-2</v>
+      <c r="J12">
+        <v>-5.5503662660415697E-2</v>
+      </c>
+      <c r="K12">
+        <v>-7.5987116994090706E-2</v>
       </c>
       <c r="L12" s="5">
         <v>3</v>
@@ -1615,11 +1613,11 @@
       <c r="I13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="7">
-        <v>2.1244267711974602E-2</v>
-      </c>
-      <c r="K13" s="7">
-        <v>-4.5069248889883402E-2</v>
+      <c r="J13">
+        <v>3.97586663555132E-2</v>
+      </c>
+      <c r="K13">
+        <v>-6.07863401522157E-2</v>
       </c>
       <c r="L13" s="5">
         <v>5</v>
@@ -1653,11 +1651,11 @@
       <c r="I14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="7">
-        <v>-4.97146198891361E-2</v>
-      </c>
-      <c r="K14" s="7">
-        <v>-0.130955104497124</v>
+      <c r="J14">
+        <v>-5.7489368147789897E-2</v>
+      </c>
+      <c r="K14">
+        <v>-0.140184024221499</v>
       </c>
       <c r="L14" s="5">
         <v>3</v>
@@ -1691,11 +1689,11 @@
       <c r="I15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="7">
-        <v>8.3019697113530797E-4</v>
-      </c>
-      <c r="K15" s="7">
-        <v>-6.8117779873338197E-2</v>
+      <c r="J15">
+        <v>-1.7324667207233899E-2</v>
+      </c>
+      <c r="K15">
+        <v>-8.0534062216352301E-2</v>
       </c>
       <c r="L15" s="5">
         <v>4</v>
@@ -1729,11 +1727,11 @@
       <c r="I16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="7">
-        <v>1.6802553773775899E-2</v>
-      </c>
-      <c r="K16" s="7">
-        <v>-7.2284208075454201E-2</v>
+      <c r="J16">
+        <v>1.20196039711739E-2</v>
+      </c>
+      <c r="K16">
+        <v>-5.0389011560390301E-2</v>
       </c>
       <c r="L16" s="5">
         <v>5</v>
@@ -1767,11 +1765,11 @@
       <c r="I17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="7">
-        <v>2.95474119906486E-2</v>
-      </c>
-      <c r="K17" s="7">
-        <v>-6.2840369778588395E-2</v>
+      <c r="J17">
+        <v>6.8497421753326397E-3</v>
+      </c>
+      <c r="K17">
+        <v>-0.11988152130435201</v>
       </c>
       <c r="L17" s="5">
         <v>2</v>
@@ -1805,11 +1803,11 @@
       <c r="I18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="7">
-        <v>-2.3645909351229E-2</v>
-      </c>
-      <c r="K18" s="7">
-        <v>-4.2541299526058E-2</v>
+      <c r="J18">
+        <v>-1.55504813524427E-2</v>
+      </c>
+      <c r="K18">
+        <v>-0.13544495494747399</v>
       </c>
       <c r="L18" s="5">
         <v>4</v>
@@ -1843,11 +1841,11 @@
       <c r="I19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="7">
-        <v>1.0699779731064601E-2</v>
-      </c>
-      <c r="K19" s="7">
-        <v>-9.6830030243191395E-2</v>
+      <c r="J19">
+        <v>-1.1323520543273E-2</v>
+      </c>
+      <c r="K19">
+        <v>-0.13312104846974501</v>
       </c>
       <c r="L19" s="5">
         <v>4</v>
@@ -1881,11 +1879,11 @@
       <c r="I20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="7">
-        <v>1.3563138069005701E-3</v>
-      </c>
-      <c r="K20" s="7">
-        <v>-0.109458692080559</v>
+      <c r="J20">
+        <v>-3.0450674933327999E-2</v>
+      </c>
+      <c r="K20">
+        <v>-9.1735516221472996E-2</v>
       </c>
       <c r="L20" s="5">
         <v>1</v>
@@ -1919,11 +1917,11 @@
       <c r="I21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="7">
-        <v>-6.0570438640520599E-2</v>
-      </c>
-      <c r="K21" s="7">
-        <v>-6.3360084160276497E-2</v>
+      <c r="J21">
+        <v>-2.9326249548049702E-2</v>
+      </c>
+      <c r="K21">
+        <v>-0.111766433305884</v>
       </c>
       <c r="L21" s="5">
         <v>4</v>
@@ -1957,11 +1955,11 @@
       <c r="I22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="7">
-        <v>-2.2604212281442101E-2</v>
-      </c>
-      <c r="K22" s="7">
-        <v>-9.9095597686319398E-2</v>
+      <c r="J22">
+        <v>-1.36331549805245E-2</v>
+      </c>
+      <c r="K22">
+        <v>-0.116992126693005</v>
       </c>
       <c r="L22" s="5">
         <v>1</v>
@@ -1995,11 +1993,11 @@
       <c r="I23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="7">
-        <v>-3.2833589598408701E-2</v>
-      </c>
-      <c r="K23" s="7">
-        <v>-6.3225608778801595E-2</v>
+      <c r="J23">
+        <v>9.3519256171893106E-3</v>
+      </c>
+      <c r="K23">
+        <v>-7.43023328246989E-3</v>
       </c>
       <c r="L23" s="5">
         <v>3</v>
@@ -2033,11 +2031,11 @@
       <c r="I24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="7">
-        <v>-2.7548938698034101E-2</v>
-      </c>
-      <c r="K24" s="7">
-        <v>-4.4949566388002397E-2</v>
+      <c r="J24">
+        <v>1.28621464215306E-2</v>
+      </c>
+      <c r="K24">
+        <v>-4.5407518906435601E-2</v>
       </c>
       <c r="L24" s="5">
         <v>2</v>
@@ -2071,11 +2069,11 @@
       <c r="I25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="7">
-        <v>-2.08469736395453E-2</v>
-      </c>
-      <c r="K25" s="7">
-        <v>-8.2974782225458801E-2</v>
+      <c r="J25">
+        <v>-3.4875529548135699E-2</v>
+      </c>
+      <c r="K25">
+        <v>-5.1507420773232802E-2</v>
       </c>
       <c r="L25" s="5">
         <v>5</v>
@@ -2109,11 +2107,11 @@
       <c r="I26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="7">
-        <v>-5.2828109689044701E-2</v>
-      </c>
-      <c r="K26" s="7">
-        <v>-6.7447221937797897E-2</v>
+      <c r="J26">
+        <v>-4.2946083990237402E-2</v>
+      </c>
+      <c r="K26">
+        <v>-7.4861004842012094E-2</v>
       </c>
       <c r="L26" s="5">
         <v>1</v>
@@ -2147,11 +2145,11 @@
       <c r="I27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="7">
-        <v>-5.6103016543678302E-2</v>
-      </c>
-      <c r="K27" s="7">
-        <v>-9.6899164984280597E-2</v>
+      <c r="J27">
+        <v>-3.3407997227327201E-2</v>
+      </c>
+      <c r="K27">
+        <v>-0.10727188850632199</v>
       </c>
       <c r="L27" s="5">
         <v>1</v>
@@ -2185,11 +2183,11 @@
       <c r="I28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J28" s="7">
-        <v>-8.4554625753038903E-2</v>
-      </c>
-      <c r="K28" s="7">
-        <v>-0.119078911622348</v>
+      <c r="J28">
+        <v>-7.1710185813030403E-2</v>
+      </c>
+      <c r="K28">
+        <v>-9.7987455931091497E-2</v>
       </c>
       <c r="L28" s="5">
         <v>1</v>
@@ -2223,11 +2221,11 @@
       <c r="I29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="7">
-        <v>-8.7299399703088601E-2</v>
-      </c>
-      <c r="K29" s="7">
-        <v>-0.152469039492372</v>
+      <c r="J29">
+        <v>-9.2715376372249997E-2</v>
+      </c>
+      <c r="K29">
+        <v>-0.10165022579692699</v>
       </c>
       <c r="L29" s="5">
         <v>1</v>
@@ -2261,11 +2259,11 @@
       <c r="I30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="7">
-        <v>-7.1577686491048897E-2</v>
-      </c>
-      <c r="K30" s="7">
-        <v>-9.2709475221913099E-2</v>
+      <c r="J30">
+        <v>-7.5351955121796099E-2</v>
+      </c>
+      <c r="K30">
+        <v>-4.31765639938698E-2</v>
       </c>
       <c r="L30" s="5">
         <v>4</v>
@@ -2299,11 +2297,11 @@
       <c r="I31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="7">
-        <v>8.8052055811884494E-2</v>
-      </c>
-      <c r="K31" s="7">
-        <v>-5.8717010345753502E-2</v>
+      <c r="J31">
+        <v>0.100825090734373</v>
+      </c>
+      <c r="K31">
+        <v>-8.7251758773962504E-2</v>
       </c>
       <c r="L31" s="5">
         <v>3</v>
@@ -2337,11 +2335,11 @@
       <c r="I32" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="7">
-        <v>0.18454175754766899</v>
-      </c>
-      <c r="K32" s="7">
-        <v>2.5613085784130199E-2</v>
+      <c r="J32">
+        <v>0.16497887816022999</v>
+      </c>
+      <c r="K32">
+        <v>-1.11550815674524E-2</v>
       </c>
       <c r="L32" s="5">
         <v>2</v>
@@ -2375,11 +2373,11 @@
       <c r="I33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="7">
-        <v>0.125875181415048</v>
-      </c>
-      <c r="K33" s="7">
-        <v>-0.10166731860096399</v>
+      <c r="J33">
+        <v>0.13780642730022799</v>
+      </c>
+      <c r="K33">
+        <v>-8.77713519969434E-2</v>
       </c>
       <c r="L33" s="5">
         <v>5</v>
@@ -2413,11 +2411,11 @@
       <c r="I34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="7">
-        <v>0.125562483517592</v>
-      </c>
-      <c r="K34" s="7">
-        <v>-9.4465751124967495E-2</v>
+      <c r="J34">
+        <v>0.14310321918012001</v>
+      </c>
+      <c r="K34">
+        <v>-0.10566399088395401</v>
       </c>
       <c r="L34" s="5">
         <v>5</v>
@@ -2451,11 +2449,11 @@
       <c r="I35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="7">
-        <v>0.186957819594915</v>
-      </c>
-      <c r="K35" s="7">
-        <v>1.4697126077561401E-3</v>
+      <c r="J35">
+        <v>0.15883768845549301</v>
+      </c>
+      <c r="K35">
+        <v>-6.9008406247441398E-4</v>
       </c>
       <c r="L35" s="5">
         <v>3</v>
@@ -2489,11 +2487,11 @@
       <c r="I36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="7">
-        <v>0.146136081625106</v>
-      </c>
-      <c r="K36" s="7">
-        <v>-2.8070498595161801E-2</v>
+      <c r="J36">
+        <v>0.168283369112249</v>
+      </c>
+      <c r="K36">
+        <v>-5.3140045144965703E-2</v>
       </c>
       <c r="L36" s="5">
         <v>2</v>
@@ -2527,11 +2525,11 @@
       <c r="I37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J37" s="7">
-        <v>0.13065364649917999</v>
-      </c>
-      <c r="K37" s="7">
-        <v>-5.0931350549412099E-2</v>
+      <c r="J37">
+        <v>0.128945904735564</v>
+      </c>
+      <c r="K37">
+        <v>-2.4599889929035699E-2</v>
       </c>
       <c r="L37" s="5">
         <v>3</v>
@@ -2565,11 +2563,11 @@
       <c r="I38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J38" s="7">
-        <v>0.119066825533576</v>
-      </c>
-      <c r="K38" s="7">
-        <v>-2.16035646662344E-2</v>
+      <c r="J38">
+        <v>0.119522461361381</v>
+      </c>
+      <c r="K38">
+        <v>-5.34138614835565E-2</v>
       </c>
       <c r="L38" s="5">
         <v>1</v>
@@ -2603,11 +2601,11 @@
       <c r="I39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J39" s="7">
-        <v>0.115809819955367</v>
-      </c>
-      <c r="K39" s="7">
-        <v>-6.6869361424830104E-2</v>
+      <c r="J39">
+        <v>0.125753549815418</v>
+      </c>
+      <c r="K39">
+        <v>-9.4613351807747603E-2</v>
       </c>
       <c r="L39" s="5">
         <v>1</v>
@@ -2641,11 +2639,11 @@
       <c r="I40" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J40" s="7">
-        <v>0.129799736632082</v>
-      </c>
-      <c r="K40" s="7">
-        <v>-8.7204237243627705E-2</v>
+      <c r="J40">
+        <v>0.140235975761585</v>
+      </c>
+      <c r="K40">
+        <v>-7.6556310932036298E-2</v>
       </c>
       <c r="L40" s="5">
         <v>3</v>
@@ -2679,11 +2677,11 @@
       <c r="I41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J41" s="7">
-        <v>0.112355023921705</v>
-      </c>
-      <c r="K41" s="7">
-        <v>-4.7230131064912299E-2</v>
+      <c r="J41">
+        <v>0.14205142866405199</v>
+      </c>
+      <c r="K41">
+        <v>-4.7861006245541002E-2</v>
       </c>
       <c r="L41" s="5">
         <v>3</v>
@@ -2717,11 +2715,11 @@
       <c r="I42" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J42" s="7">
-        <v>0.13356915568496899</v>
-      </c>
-      <c r="K42" s="7">
-        <v>-5.1434722497378398E-2</v>
+      <c r="J42">
+        <v>0.144053628403955</v>
+      </c>
+      <c r="K42">
+        <v>-7.5463829580992306E-2</v>
       </c>
       <c r="L42" s="5">
         <v>3</v>
@@ -2755,11 +2753,11 @@
       <c r="I43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="7">
-        <v>0.12685789599309999</v>
-      </c>
-      <c r="K43" s="7">
-        <v>-6.3339682578705106E-2</v>
+      <c r="J43">
+        <v>0.12129061952211299</v>
+      </c>
+      <c r="K43">
+        <v>-4.9255422755329403E-2</v>
       </c>
       <c r="L43" s="5">
         <v>1</v>
@@ -2793,11 +2791,11 @@
       <c r="I44" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J44" s="7">
-        <v>3.32540133572167E-2</v>
-      </c>
-      <c r="K44" s="7">
-        <v>6.2601380208642504E-2</v>
+      <c r="J44">
+        <v>3.9177954072983801E-2</v>
+      </c>
+      <c r="K44">
+        <v>4.9544012147938101E-3</v>
       </c>
       <c r="L44" s="5">
         <v>2</v>
@@ -2831,11 +2829,11 @@
       <c r="I45" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J45" s="7">
-        <v>2.9026623608183099E-2</v>
-      </c>
-      <c r="K45" s="7">
-        <v>-3.72663437466238E-3</v>
+      <c r="J45">
+        <v>3.8034175178009499E-2</v>
+      </c>
+      <c r="K45">
+        <v>-3.0286363802456698E-2</v>
       </c>
       <c r="L45" s="5">
         <v>2</v>
@@ -2869,11 +2867,11 @@
       <c r="I46" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J46" s="7">
-        <v>5.0332761614403303E-2</v>
-      </c>
-      <c r="K46" s="7">
-        <v>6.4922086910920093E-2</v>
+      <c r="J46">
+        <v>6.5868434400371101E-2</v>
+      </c>
+      <c r="K46">
+        <v>3.7566162076363999E-2</v>
       </c>
       <c r="L46" s="5">
         <v>4</v>
@@ -2907,11 +2905,11 @@
       <c r="I47" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J47" s="7">
-        <v>4.0930667637498003E-2</v>
-      </c>
-      <c r="K47" s="7">
-        <v>4.0925728554796099E-2</v>
+      <c r="J47">
+        <v>4.2309193483436897E-2</v>
+      </c>
+      <c r="K47">
+        <v>6.8993178232597497E-3</v>
       </c>
       <c r="L47" s="5">
         <v>3</v>
@@ -2945,11 +2943,11 @@
       <c r="I48" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J48" s="7">
-        <v>4.3074922544204697E-2</v>
-      </c>
-      <c r="K48" s="7">
-        <v>5.6886326423237203E-2</v>
+      <c r="J48">
+        <v>1.5423954096310101E-2</v>
+      </c>
+      <c r="K48">
+        <v>-1.05999026599798E-2</v>
       </c>
       <c r="L48" s="5">
         <v>5</v>
@@ -2983,11 +2981,11 @@
       <c r="I49" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J49" s="7">
-        <v>6.0894886736323602E-2</v>
-      </c>
-      <c r="K49" s="7">
-        <v>4.1220543982574603E-2</v>
+      <c r="J49">
+        <v>6.2327809197596701E-2</v>
+      </c>
+      <c r="K49">
+        <v>1.0592018989160599E-3</v>
       </c>
       <c r="L49" s="5">
         <v>1</v>
@@ -3021,11 +3019,11 @@
       <c r="I50" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J50" s="7">
-        <v>4.8576520922100401E-2</v>
-      </c>
-      <c r="K50" s="7">
-        <v>-1.70485583996852E-2</v>
+      <c r="J50">
+        <v>3.6419715719013299E-2</v>
+      </c>
+      <c r="K50">
+        <v>-5.99081481586035E-2</v>
       </c>
       <c r="L50" s="5">
         <v>5</v>
@@ -3059,11 +3057,11 @@
       <c r="I51" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J51" s="7">
-        <v>6.2904867179781998E-2</v>
-      </c>
-      <c r="K51" s="7">
-        <v>0.108300302745585</v>
+      <c r="J51">
+        <v>9.2383574625284098E-2</v>
+      </c>
+      <c r="K51">
+        <v>0.128104595584841</v>
       </c>
       <c r="L51" s="5">
         <v>1</v>
@@ -3097,11 +3095,11 @@
       <c r="I52" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J52" s="7">
-        <v>5.6732795553103598E-4</v>
-      </c>
-      <c r="K52" s="7">
-        <v>-3.8231430756621602E-2</v>
+      <c r="J52">
+        <v>-1.4836689601916499E-2</v>
+      </c>
+      <c r="K52">
+        <v>-8.2850415296133503E-2</v>
       </c>
       <c r="L52" s="5">
         <v>2</v>
@@ -3135,11 +3133,11 @@
       <c r="I53" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J53" s="7">
-        <v>8.5051802243145694E-2</v>
-      </c>
-      <c r="K53" s="7">
-        <v>4.8422233748363401E-2</v>
+      <c r="J53">
+        <v>7.5483195476695894E-2</v>
+      </c>
+      <c r="K53">
+        <v>-2.9477413665898199E-2</v>
       </c>
       <c r="L53" s="5">
         <v>4</v>
@@ -3173,11 +3171,11 @@
       <c r="I54" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J54" s="7">
-        <v>9.0920284168565499E-2</v>
-      </c>
-      <c r="K54" s="7">
-        <v>0.103257170109316</v>
+      <c r="J54">
+        <v>7.4555075230710297E-2</v>
+      </c>
+      <c r="K54">
+        <v>4.3526587308885603E-2</v>
       </c>
       <c r="L54" s="5">
         <v>3</v>
@@ -3211,11 +3209,11 @@
       <c r="I55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J55" s="7">
-        <v>5.3425479518687598E-2</v>
-      </c>
-      <c r="K55" s="7">
-        <v>0.11251746079698501</v>
+      <c r="J55">
+        <v>7.7284963397567005E-2</v>
+      </c>
+      <c r="K55">
+        <v>9.4632435796566494E-2</v>
       </c>
       <c r="L55" s="5">
         <v>4</v>
@@ -3249,11 +3247,11 @@
       <c r="I56" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J56" s="7">
-        <v>5.6038137343599498E-2</v>
-      </c>
-      <c r="K56" s="7">
-        <v>0.13566339756333001</v>
+      <c r="J56">
+        <v>4.9827177188566801E-2</v>
+      </c>
+      <c r="K56">
+        <v>0.30633789306271297</v>
       </c>
       <c r="L56" s="5">
         <v>4</v>
@@ -3287,11 +3285,11 @@
       <c r="I57" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J57" s="7">
-        <v>6.1001141368944398E-2</v>
-      </c>
-      <c r="K57" s="7">
-        <v>0.10918714460819499</v>
+      <c r="J57">
+        <v>6.7623858471160203E-2</v>
+      </c>
+      <c r="K57">
+        <v>7.33110377649486E-2</v>
       </c>
       <c r="L57" s="5">
         <v>3</v>
@@ -3325,11 +3323,11 @@
       <c r="I58" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J58" s="7">
-        <v>4.0585145062668901E-2</v>
-      </c>
-      <c r="K58" s="7">
-        <v>0.10245526380579301</v>
+      <c r="J58">
+        <v>6.5573531533148696E-2</v>
+      </c>
+      <c r="K58">
+        <v>0.228306517104121</v>
       </c>
       <c r="L58" s="5">
         <v>5</v>
@@ -3363,11 +3361,11 @@
       <c r="I59" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J59" s="7">
-        <v>2.9957473526202399E-2</v>
-      </c>
-      <c r="K59" s="7">
-        <v>9.6780234749413802E-2</v>
+      <c r="J59">
+        <v>5.79092853379043E-2</v>
+      </c>
+      <c r="K59">
+        <v>0.29362542986961898</v>
       </c>
       <c r="L59" s="5">
         <v>5</v>
@@ -3401,11 +3399,11 @@
       <c r="I60" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J60" s="7">
-        <v>8.0883065960278902E-2</v>
-      </c>
-      <c r="K60" s="7">
-        <v>0.123894333474614</v>
+      <c r="J60">
+        <v>7.86756633231976E-2</v>
+      </c>
+      <c r="K60">
+        <v>0.27396904846382902</v>
       </c>
       <c r="L60" s="5">
         <v>2</v>
@@ -3439,11 +3437,11 @@
       <c r="I61" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J61" s="7">
-        <v>3.82071445867583E-2</v>
-      </c>
-      <c r="K61" s="7">
-        <v>2.6276528922785598E-2</v>
+      <c r="J61">
+        <v>5.3132019659806698E-2</v>
+      </c>
+      <c r="K61">
+        <v>0.10855021484576299</v>
       </c>
       <c r="L61" s="5">
         <v>4</v>
@@ -3477,11 +3475,11 @@
       <c r="I62" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J62" s="7">
-        <v>6.04758464739239E-2</v>
-      </c>
-      <c r="K62" s="7">
-        <v>0.12630138514271899</v>
+      <c r="J62">
+        <v>5.8493645606261302E-2</v>
+      </c>
+      <c r="K62">
+        <v>0.30690762614696498</v>
       </c>
       <c r="L62" s="5">
         <v>5</v>
@@ -3515,11 +3513,11 @@
       <c r="I63" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J63" s="7">
-        <v>3.7355664046178703E-2</v>
-      </c>
-      <c r="K63" s="7">
-        <v>0.100449308415114</v>
+      <c r="J63">
+        <v>4.0090323603642598E-2</v>
+      </c>
+      <c r="K63">
+        <v>0.27111815111632198</v>
       </c>
       <c r="L63" s="5">
         <v>5</v>
@@ -3554,10 +3552,10 @@
         <v>84</v>
       </c>
       <c r="J64" s="7">
-        <v>-8.4256550552679593E-3</v>
-      </c>
-      <c r="K64" s="7">
-        <v>-2.1116471037363901E-2</v>
+        <v>-4.0038001208821697E-5</v>
+      </c>
+      <c r="K64">
+        <v>-0.116797651129566</v>
       </c>
       <c r="L64" s="5">
         <v>5</v>
@@ -3591,11 +3589,11 @@
       <c r="I65" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J65" s="7">
-        <v>7.6105148012043697E-2</v>
-      </c>
-      <c r="K65" s="7">
-        <v>9.7711501035741E-2</v>
+      <c r="J65">
+        <v>8.2164442934068299E-2</v>
+      </c>
+      <c r="K65">
+        <v>6.2151351717245402E-2</v>
       </c>
       <c r="L65" s="5">
         <v>4</v>
@@ -3629,11 +3627,11 @@
       <c r="I66" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J66" s="7">
-        <v>5.80894410110415E-2</v>
-      </c>
-      <c r="K66" s="7">
-        <v>5.4286373616246102E-2</v>
+      <c r="J66">
+        <v>4.1694370598652497E-2</v>
+      </c>
+      <c r="K66">
+        <v>2.56655160439841E-3</v>
       </c>
       <c r="L66" s="5">
         <v>4</v>
@@ -3667,11 +3665,11 @@
       <c r="I67" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J67" s="7">
-        <v>5.3213093076427999E-2</v>
-      </c>
-      <c r="K67" s="7">
-        <v>3.70809420661984E-2</v>
+      <c r="J67">
+        <v>3.0465914011577801E-2</v>
+      </c>
+      <c r="K67">
+        <v>-6.8184370222218798E-3</v>
       </c>
       <c r="L67" s="5">
         <v>1</v>
@@ -3705,11 +3703,11 @@
       <c r="I68" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J68" s="7">
-        <v>2.2752719436336499E-2</v>
-      </c>
-      <c r="K68" s="7">
-        <v>4.6909513175491899E-2</v>
+      <c r="J68">
+        <v>1.5827765378785202E-2</v>
+      </c>
+      <c r="K68">
+        <v>2.0813467932320098E-2</v>
       </c>
       <c r="L68" s="5">
         <v>4</v>
@@ -3743,11 +3741,11 @@
       <c r="I69" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J69" s="7">
-        <v>8.8623998477535396E-2</v>
-      </c>
-      <c r="K69" s="7">
-        <v>0.13545967956358601</v>
+      <c r="J69">
+        <v>7.5359130376044497E-2</v>
+      </c>
+      <c r="K69">
+        <v>3.9269319731098103E-2</v>
       </c>
       <c r="L69" s="5">
         <v>5</v>
@@ -3781,11 +3779,11 @@
       <c r="I70" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J70" s="7">
-        <v>0.12992524422260901</v>
-      </c>
-      <c r="K70" s="7">
-        <v>-7.2272554357389496E-2</v>
+      <c r="J70">
+        <v>0.14726343106248299</v>
+      </c>
+      <c r="K70">
+        <v>-3.3176823031405102E-2</v>
       </c>
       <c r="L70" s="5">
         <v>2</v>
@@ -3819,11 +3817,11 @@
       <c r="I71" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J71" s="7">
-        <v>0.14988086463721401</v>
-      </c>
-      <c r="K71" s="7">
-        <v>-7.1796145547438905E-2</v>
+      <c r="J71">
+        <v>0.13457322011550299</v>
+      </c>
+      <c r="K71">
+        <v>-3.6571417780733903E-2</v>
       </c>
       <c r="L71" s="5">
         <v>2</v>
@@ -3857,11 +3855,11 @@
       <c r="I72" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J72" s="7">
-        <v>0.152582388072871</v>
-      </c>
-      <c r="K72" s="7">
-        <v>-5.4318024884395202E-2</v>
+      <c r="J72">
+        <v>0.15526077055176901</v>
+      </c>
+      <c r="K72">
+        <v>-4.99787221987502E-2</v>
       </c>
       <c r="L72" s="5">
         <v>2</v>
@@ -3895,11 +3893,11 @@
       <c r="I73" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J73" s="7">
-        <v>0.1062660005512</v>
-      </c>
-      <c r="K73" s="7">
-        <v>-8.0251953151868893E-2</v>
+      <c r="J73">
+        <v>0.11239923975478799</v>
+      </c>
+      <c r="K73">
+        <v>-9.2231839125052201E-2</v>
       </c>
       <c r="L73" s="5">
         <v>1</v>
@@ -3933,11 +3931,11 @@
       <c r="I74" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J74" s="7">
-        <v>8.8181315807770999E-2</v>
-      </c>
-      <c r="K74" s="7">
-        <v>0.109536917917674</v>
+      <c r="J74">
+        <v>4.9411199094719201E-2</v>
+      </c>
+      <c r="K74">
+        <v>2.99226328922323E-2</v>
       </c>
       <c r="L74" s="5">
         <v>3</v>
@@ -3971,11 +3969,11 @@
       <c r="I75" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J75" s="7">
-        <v>2.9665905991367199E-2</v>
-      </c>
-      <c r="K75" s="7">
-        <v>2.3023031184025499E-2</v>
+      <c r="J75">
+        <v>2.0677547829126699E-2</v>
+      </c>
+      <c r="K75">
+        <v>-1.05816679077535E-2</v>
       </c>
       <c r="L75" s="5">
         <v>4</v>
@@ -4009,11 +4007,11 @@
       <c r="I76" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J76" s="7">
-        <v>6.5393071952627196E-2</v>
-      </c>
-      <c r="K76" s="7">
-        <v>4.5932124059036503E-2</v>
+      <c r="J76">
+        <v>3.7511836951961398E-2</v>
+      </c>
+      <c r="K76">
+        <v>2.3730840708492799E-2</v>
       </c>
       <c r="L76" s="5">
         <v>1</v>
@@ -4047,11 +4045,11 @@
       <c r="I77" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J77" s="7">
-        <v>6.6978959943788594E-2</v>
-      </c>
-      <c r="K77" s="7">
-        <v>5.9816607183954498E-2</v>
+      <c r="J77">
+        <v>3.4019576509929199E-2</v>
+      </c>
+      <c r="K77">
+        <v>2.9665558271286301E-2</v>
       </c>
       <c r="L77" s="5">
         <v>5</v>
@@ -4085,11 +4083,11 @@
       <c r="I78" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J78" s="7">
-        <v>8.62341254254467E-2</v>
-      </c>
-      <c r="K78" s="7">
-        <v>7.1491911816744705E-2</v>
+      <c r="J78">
+        <v>5.6339718401893599E-2</v>
+      </c>
+      <c r="K78">
+        <v>6.8475582719591005E-2</v>
       </c>
       <c r="L78" s="5">
         <v>4</v>
@@ -4123,11 +4121,11 @@
       <c r="I79" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J79" s="7">
-        <v>4.2320606416114501E-2</v>
-      </c>
-      <c r="K79" s="7">
-        <v>2.9097831058413199E-2</v>
+      <c r="J79">
+        <v>4.6893745849321197E-2</v>
+      </c>
+      <c r="K79">
+        <v>7.6231825788147202E-3</v>
       </c>
       <c r="L79" s="5">
         <v>3</v>
@@ -4161,11 +4159,11 @@
       <c r="I80" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J80" s="7">
-        <v>6.5155017575789106E-2</v>
-      </c>
-      <c r="K80" s="7">
-        <v>-5.4673214524205297E-3</v>
+      <c r="J80">
+        <v>6.6576033650672398E-2</v>
+      </c>
+      <c r="K80">
+        <v>-1.6474550209607901E-2</v>
       </c>
       <c r="L80" s="5">
         <v>3</v>
@@ -4199,11 +4197,11 @@
       <c r="I81" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J81" s="7">
-        <v>-4.6241395940745098E-2</v>
-      </c>
-      <c r="K81" s="7">
-        <v>-3.3403268598358599E-2</v>
+      <c r="J81">
+        <v>-1.5864803698377099E-2</v>
+      </c>
+      <c r="K81">
+        <v>-3.8623300153497298E-2</v>
       </c>
       <c r="L81" s="5">
         <v>5</v>
@@ -4237,11 +4235,11 @@
       <c r="I82" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J82" s="7">
-        <v>-4.1115576720596098E-2</v>
-      </c>
-      <c r="K82" s="7">
-        <v>-8.2622899961987503E-2</v>
+      <c r="J82">
+        <v>-2.5907979090910901E-2</v>
+      </c>
+      <c r="K82">
+        <v>-5.8361945746282097E-2</v>
       </c>
       <c r="L82" s="5">
         <v>3</v>
@@ -4275,11 +4273,11 @@
       <c r="I83" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J83" s="7">
-        <v>4.1879497988246001E-2</v>
-      </c>
-      <c r="K83" s="7">
-        <v>-2.7315483146837399E-3</v>
+      <c r="J83">
+        <v>1.8065608022680001E-2</v>
+      </c>
+      <c r="K83">
+        <v>-3.4934635380137802E-2</v>
       </c>
       <c r="L83" s="5">
         <v>4</v>
@@ -4313,11 +4311,11 @@
       <c r="I84" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J84" s="7">
-        <v>9.7520933125246803E-2</v>
-      </c>
-      <c r="K84" s="7">
-        <v>8.7768847415413895E-2</v>
+      <c r="J84">
+        <v>0.109134359259486</v>
+      </c>
+      <c r="K84">
+        <v>0.107971936850982</v>
       </c>
       <c r="L84" s="5">
         <v>5</v>
@@ -4351,11 +4349,11 @@
       <c r="I85" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J85" s="7">
-        <v>9.4625475922472294E-2</v>
-      </c>
-      <c r="K85" s="7">
-        <v>0.11194787008691399</v>
+      <c r="J85">
+        <v>8.6041583830490501E-2</v>
+      </c>
+      <c r="K85">
+        <v>0.119671615367341</v>
       </c>
       <c r="L85" s="5">
         <v>3</v>
@@ -4389,11 +4387,11 @@
       <c r="I86" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J86" s="7">
-        <v>0.15073312387798399</v>
-      </c>
-      <c r="K86" s="7">
-        <v>3.1603732537407503E-2</v>
+      <c r="J86">
+        <v>0.15987310105124</v>
+      </c>
+      <c r="K86">
+        <v>4.5379393235328601E-2</v>
       </c>
       <c r="L86" s="5">
         <v>1</v>
@@ -4427,11 +4425,11 @@
       <c r="I87" s="5">
         <v>864</v>
       </c>
-      <c r="J87" s="7">
-        <v>-0.13846132690583299</v>
-      </c>
-      <c r="K87" s="7">
-        <v>0.10498343904469</v>
+      <c r="J87">
+        <v>-0.14130347395092099</v>
+      </c>
+      <c r="K87">
+        <v>6.2871345231343204E-2</v>
       </c>
       <c r="L87" s="5">
         <v>4</v>
@@ -4465,11 +4463,11 @@
       <c r="I88" s="5">
         <v>851</v>
       </c>
-      <c r="J88" s="7">
-        <v>-0.15613706975595301</v>
-      </c>
-      <c r="K88" s="7">
-        <v>9.0170746240000696E-2</v>
+      <c r="J88">
+        <v>-0.17147236971461</v>
+      </c>
+      <c r="K88">
+        <v>4.6922824906105401E-2</v>
       </c>
       <c r="L88" s="5">
         <v>3</v>
@@ -4503,11 +4501,11 @@
       <c r="I89" s="5">
         <v>865</v>
       </c>
-      <c r="J89" s="7">
-        <v>-0.14527177803244201</v>
-      </c>
-      <c r="K89" s="7">
-        <v>8.2857769068588896E-2</v>
+      <c r="J89">
+        <v>-0.153276326605191</v>
+      </c>
+      <c r="K89">
+        <v>5.3408315717233E-2</v>
       </c>
       <c r="L89" s="5">
         <v>2</v>
@@ -4541,11 +4539,11 @@
       <c r="I90" s="5">
         <v>867</v>
       </c>
-      <c r="J90" s="7">
-        <v>-0.17558862291864299</v>
-      </c>
-      <c r="K90" s="7">
-        <v>0.10529903565209001</v>
+      <c r="J90">
+        <v>-0.160394173857312</v>
+      </c>
+      <c r="K90">
+        <v>7.4773209891766598E-2</v>
       </c>
       <c r="L90" s="5">
         <v>3</v>
@@ -4579,11 +4577,11 @@
       <c r="I91" s="5">
         <v>858</v>
       </c>
-      <c r="J91" s="7">
-        <v>-0.14058060003274001</v>
-      </c>
-      <c r="K91" s="7">
-        <v>8.9226139198867904E-2</v>
+      <c r="J91">
+        <v>-0.154763685443807</v>
+      </c>
+      <c r="K91">
+        <v>6.80832505985738E-2</v>
       </c>
       <c r="L91" s="5">
         <v>1</v>
@@ -4617,11 +4615,11 @@
       <c r="I92" s="5">
         <v>855</v>
       </c>
-      <c r="J92" s="7">
-        <v>-0.16514008534909999</v>
-      </c>
-      <c r="K92" s="7">
-        <v>8.7078337094536398E-2</v>
+      <c r="J92">
+        <v>-0.16425294201487101</v>
+      </c>
+      <c r="K92">
+        <v>5.9490800626130803E-2</v>
       </c>
       <c r="L92" s="5">
         <v>5</v>
@@ -4655,11 +4653,11 @@
       <c r="I93" s="5">
         <v>856</v>
       </c>
-      <c r="J93" s="7">
-        <v>-0.16185186223145301</v>
-      </c>
-      <c r="K93" s="7">
-        <v>8.5925556605168305E-2</v>
+      <c r="J93">
+        <v>-0.162505921867939</v>
+      </c>
+      <c r="K93">
+        <v>7.7608209585121504E-2</v>
       </c>
       <c r="L93" s="5">
         <v>3</v>
@@ -4693,11 +4691,11 @@
       <c r="I94" s="5">
         <v>863</v>
       </c>
-      <c r="J94" s="7">
-        <v>-0.159240586039228</v>
-      </c>
-      <c r="K94" s="7">
-        <v>9.0510833173503696E-2</v>
+      <c r="J94">
+        <v>-0.154803857716209</v>
+      </c>
+      <c r="K94">
+        <v>5.8531949833531702E-2</v>
       </c>
       <c r="L94" s="5">
         <v>2</v>
@@ -4731,11 +4729,11 @@
       <c r="I95" s="5">
         <v>847</v>
       </c>
-      <c r="J95" s="7">
-        <v>-0.16498889435955799</v>
-      </c>
-      <c r="K95" s="7">
-        <v>7.3809079501621994E-2</v>
+      <c r="J95">
+        <v>-0.16088293628981901</v>
+      </c>
+      <c r="K95">
+        <v>6.8715411795298498E-2</v>
       </c>
       <c r="L95" s="5">
         <v>4</v>
@@ -4769,11 +4767,11 @@
       <c r="I96" s="5">
         <v>861</v>
       </c>
-      <c r="J96" s="7">
-        <v>-0.15608894301048301</v>
-      </c>
-      <c r="K96" s="7">
-        <v>8.6855654853297104E-2</v>
+      <c r="J96">
+        <v>-0.14047619012714399</v>
+      </c>
+      <c r="K96">
+        <v>6.6352242138776593E-2</v>
       </c>
       <c r="L96" s="5">
         <v>4</v>
@@ -4807,11 +4805,11 @@
       <c r="I97" s="5">
         <v>869</v>
       </c>
-      <c r="J97" s="7">
-        <v>-0.14200871494992401</v>
-      </c>
-      <c r="K97" s="7">
-        <v>6.4898315205190404E-2</v>
+      <c r="J97">
+        <v>-0.143652560704496</v>
+      </c>
+      <c r="K97">
+        <v>3.6608979546173898E-2</v>
       </c>
       <c r="L97" s="5">
         <v>4</v>
@@ -4845,11 +4843,11 @@
       <c r="I98" s="5">
         <v>847</v>
       </c>
-      <c r="J98" s="7">
-        <v>-0.16498889435955799</v>
-      </c>
-      <c r="K98" s="7">
-        <v>7.3809079501621994E-2</v>
+      <c r="J98">
+        <v>-0.16088293628981901</v>
+      </c>
+      <c r="K98">
+        <v>6.8715411795298498E-2</v>
       </c>
       <c r="L98" s="5">
         <v>4</v>
@@ -4883,11 +4881,11 @@
       <c r="I99" s="5">
         <v>861</v>
       </c>
-      <c r="J99" s="7">
-        <v>-0.15608894301048301</v>
-      </c>
-      <c r="K99" s="7">
-        <v>8.6855654853297104E-2</v>
+      <c r="J99">
+        <v>-0.14047619012714399</v>
+      </c>
+      <c r="K99">
+        <v>6.6352242138776593E-2</v>
       </c>
       <c r="L99" s="5">
         <v>4</v>
@@ -4921,11 +4919,11 @@
       <c r="I100" s="5">
         <v>869</v>
       </c>
-      <c r="J100" s="7">
-        <v>-0.14200871494992401</v>
-      </c>
-      <c r="K100" s="7">
-        <v>6.4898315205190404E-2</v>
+      <c r="J100">
+        <v>-0.143652560704496</v>
+      </c>
+      <c r="K100">
+        <v>3.6608979546173898E-2</v>
       </c>
       <c r="L100" s="5">
         <v>4</v>
@@ -4959,11 +4957,11 @@
       <c r="I101" s="5">
         <v>864</v>
       </c>
-      <c r="J101" s="7">
-        <v>-0.13846132690583299</v>
-      </c>
-      <c r="K101" s="7">
-        <v>0.10498343904469</v>
+      <c r="J101">
+        <v>-0.14130347395092099</v>
+      </c>
+      <c r="K101">
+        <v>6.2871345231343204E-2</v>
       </c>
       <c r="L101" s="5">
         <v>4</v>
@@ -4997,11 +4995,11 @@
       <c r="I102" s="5">
         <v>851</v>
       </c>
-      <c r="J102" s="7">
-        <v>-0.15613706975595301</v>
-      </c>
-      <c r="K102" s="7">
-        <v>9.0170746240000696E-2</v>
+      <c r="J102">
+        <v>-0.17147236971461</v>
+      </c>
+      <c r="K102">
+        <v>4.6922824906105401E-2</v>
       </c>
       <c r="L102" s="5">
         <v>3</v>
@@ -5035,11 +5033,11 @@
       <c r="I103" s="5">
         <v>865</v>
       </c>
-      <c r="J103" s="7">
-        <v>-0.14527177803244201</v>
-      </c>
-      <c r="K103" s="7">
-        <v>8.2857769068588896E-2</v>
+      <c r="J103">
+        <v>-0.153276326605191</v>
+      </c>
+      <c r="K103">
+        <v>5.3408315717233E-2</v>
       </c>
       <c r="L103" s="5">
         <v>2</v>
@@ -5073,11 +5071,11 @@
       <c r="I104" s="5">
         <v>855</v>
       </c>
-      <c r="J104" s="7">
-        <v>-0.16514008534909999</v>
-      </c>
-      <c r="K104" s="7">
-        <v>8.7078337094536398E-2</v>
+      <c r="J104">
+        <v>-0.16425294201487101</v>
+      </c>
+      <c r="K104">
+        <v>5.9490800626130803E-2</v>
       </c>
       <c r="L104" s="5">
         <v>5</v>
@@ -5111,11 +5109,11 @@
       <c r="I105" s="5">
         <v>867</v>
       </c>
-      <c r="J105" s="7">
-        <v>-0.17558862291864299</v>
-      </c>
-      <c r="K105" s="7">
-        <v>0.10529903565209001</v>
+      <c r="J105">
+        <v>-0.160394173857312</v>
+      </c>
+      <c r="K105">
+        <v>7.4773209891766598E-2</v>
       </c>
       <c r="L105" s="5">
         <v>3</v>
@@ -5149,11 +5147,11 @@
       <c r="I106" s="5">
         <v>858</v>
       </c>
-      <c r="J106" s="7">
-        <v>-0.14058060003274001</v>
-      </c>
-      <c r="K106" s="7">
-        <v>8.9226139198867904E-2</v>
+      <c r="J106">
+        <v>-0.154763685443807</v>
+      </c>
+      <c r="K106">
+        <v>6.80832505985738E-2</v>
       </c>
       <c r="L106" s="5">
         <v>1</v>
@@ -5187,11 +5185,11 @@
       <c r="I107" s="5">
         <v>856</v>
       </c>
-      <c r="J107" s="7">
-        <v>-0.16185186223145301</v>
-      </c>
-      <c r="K107" s="7">
-        <v>8.5925556605168305E-2</v>
+      <c r="J107">
+        <v>-0.162505921867939</v>
+      </c>
+      <c r="K107">
+        <v>7.7608209585121504E-2</v>
       </c>
       <c r="L107" s="5">
         <v>3</v>
@@ -5225,11 +5223,11 @@
       <c r="I108" s="5">
         <v>863</v>
       </c>
-      <c r="J108" s="7">
-        <v>-0.159240586039228</v>
-      </c>
-      <c r="K108" s="7">
-        <v>9.0510833173503696E-2</v>
+      <c r="J108">
+        <v>-0.154803857716209</v>
+      </c>
+      <c r="K108">
+        <v>5.8531949833531702E-2</v>
       </c>
       <c r="L108" s="5">
         <v>2</v>
@@ -5263,11 +5261,11 @@
       <c r="I109" s="5">
         <v>847</v>
       </c>
-      <c r="J109" s="7">
-        <v>-0.16498889435955799</v>
-      </c>
-      <c r="K109" s="7">
-        <v>7.3809079501621994E-2</v>
+      <c r="J109">
+        <v>-0.16088293628981901</v>
+      </c>
+      <c r="K109">
+        <v>6.8715411795298498E-2</v>
       </c>
       <c r="L109" s="5">
         <v>4</v>
@@ -5301,11 +5299,11 @@
       <c r="I110" s="5">
         <v>861</v>
       </c>
-      <c r="J110" s="7">
-        <v>-0.15608894301048301</v>
-      </c>
-      <c r="K110" s="7">
-        <v>8.6855654853297104E-2</v>
+      <c r="J110">
+        <v>-0.14047619012714399</v>
+      </c>
+      <c r="K110">
+        <v>6.6352242138776593E-2</v>
       </c>
       <c r="L110" s="5">
         <v>4</v>
@@ -5339,11 +5337,11 @@
       <c r="I111" s="5">
         <v>869</v>
       </c>
-      <c r="J111" s="7">
-        <v>-0.14200871494992401</v>
-      </c>
-      <c r="K111" s="7">
-        <v>6.4898315205190404E-2</v>
+      <c r="J111">
+        <v>-0.143652560704496</v>
+      </c>
+      <c r="K111">
+        <v>3.6608979546173898E-2</v>
       </c>
       <c r="L111" s="5">
         <v>4</v>
@@ -5377,11 +5375,11 @@
       <c r="I112" s="5">
         <v>864</v>
       </c>
-      <c r="J112" s="7">
-        <v>-0.13846132690583299</v>
-      </c>
-      <c r="K112" s="7">
-        <v>0.10498343904469</v>
+      <c r="J112">
+        <v>-0.14130347395092099</v>
+      </c>
+      <c r="K112">
+        <v>6.2871345231343204E-2</v>
       </c>
       <c r="L112" s="5">
         <v>4</v>
@@ -5415,11 +5413,11 @@
       <c r="I113" s="5">
         <v>851</v>
       </c>
-      <c r="J113" s="7">
-        <v>-0.15613706975595301</v>
-      </c>
-      <c r="K113" s="7">
-        <v>9.0170746240000696E-2</v>
+      <c r="J113">
+        <v>-0.17147236971461</v>
+      </c>
+      <c r="K113">
+        <v>4.6922824906105401E-2</v>
       </c>
       <c r="L113" s="5">
         <v>3</v>
@@ -5453,11 +5451,11 @@
       <c r="I114" s="5">
         <v>865</v>
       </c>
-      <c r="J114" s="7">
-        <v>-0.14527177803244201</v>
-      </c>
-      <c r="K114" s="7">
-        <v>8.2857769068588896E-2</v>
+      <c r="J114">
+        <v>-0.153276326605191</v>
+      </c>
+      <c r="K114">
+        <v>5.3408315717233E-2</v>
       </c>
       <c r="L114" s="5">
         <v>2</v>
@@ -5491,11 +5489,11 @@
       <c r="I115" s="5">
         <v>867</v>
       </c>
-      <c r="J115" s="7">
-        <v>-0.17558862291864299</v>
-      </c>
-      <c r="K115" s="7">
-        <v>0.10529903565209001</v>
+      <c r="J115">
+        <v>-0.160394173857312</v>
+      </c>
+      <c r="K115">
+        <v>7.4773209891766598E-2</v>
       </c>
       <c r="L115" s="5">
         <v>3</v>
@@ -5529,11 +5527,11 @@
       <c r="I116" s="5">
         <v>858</v>
       </c>
-      <c r="J116" s="7">
-        <v>-0.14058060003274001</v>
-      </c>
-      <c r="K116" s="7">
-        <v>8.9226139198867904E-2</v>
+      <c r="J116">
+        <v>-0.154763685443807</v>
+      </c>
+      <c r="K116">
+        <v>6.80832505985738E-2</v>
       </c>
       <c r="L116" s="5">
         <v>1</v>
@@ -5567,11 +5565,11 @@
       <c r="I117" s="5">
         <v>855</v>
       </c>
-      <c r="J117" s="7">
-        <v>-0.16514008534909999</v>
-      </c>
-      <c r="K117" s="7">
-        <v>8.7078337094536398E-2</v>
+      <c r="J117">
+        <v>-0.16425294201487101</v>
+      </c>
+      <c r="K117">
+        <v>5.9490800626130803E-2</v>
       </c>
       <c r="L117" s="5">
         <v>5</v>
@@ -5605,11 +5603,11 @@
       <c r="I118" s="5">
         <v>856</v>
       </c>
-      <c r="J118" s="7">
-        <v>-0.16185186223145301</v>
-      </c>
-      <c r="K118" s="7">
-        <v>8.5925556605168305E-2</v>
+      <c r="J118">
+        <v>-0.162505921867939</v>
+      </c>
+      <c r="K118">
+        <v>7.7608209585121504E-2</v>
       </c>
       <c r="L118" s="5">
         <v>3</v>
@@ -5643,11 +5641,11 @@
       <c r="I119" s="5">
         <v>863</v>
       </c>
-      <c r="J119" s="7">
-        <v>-0.159240586039228</v>
-      </c>
-      <c r="K119" s="7">
-        <v>9.0510833173503696E-2</v>
+      <c r="J119">
+        <v>-0.154803857716209</v>
+      </c>
+      <c r="K119">
+        <v>5.8531949833531702E-2</v>
       </c>
       <c r="L119" s="5">
         <v>2</v>
@@ -5681,11 +5679,11 @@
       <c r="I120" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J120" s="7">
-        <v>-0.16205693553325401</v>
-      </c>
-      <c r="K120" s="7">
-        <v>6.8688951529620706E-2</v>
+      <c r="J120">
+        <v>-0.15532813825934499</v>
+      </c>
+      <c r="K120">
+        <v>5.4226280280569902E-2</v>
       </c>
       <c r="L120" s="5">
         <v>2</v>
@@ -5719,11 +5717,11 @@
       <c r="I121" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="J121" s="7">
-        <v>-0.15327246754623799</v>
-      </c>
-      <c r="K121" s="7">
-        <v>0.102242914371746</v>
+      <c r="J121">
+        <v>-0.135097786202552</v>
+      </c>
+      <c r="K121">
+        <v>5.6466408674957599E-2</v>
       </c>
       <c r="L121" s="5">
         <v>2</v>
@@ -5757,11 +5755,11 @@
       <c r="I122" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J122" s="7">
-        <v>-0.15234896675955201</v>
-      </c>
-      <c r="K122" s="7">
-        <v>0.10395878015522</v>
+      <c r="J122">
+        <v>-0.135269879285671</v>
+      </c>
+      <c r="K122">
+        <v>7.3700861871852097E-2</v>
       </c>
       <c r="L122" s="5">
         <v>3</v>
@@ -5795,11 +5793,11 @@
       <c r="I123" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J123" s="7">
-        <v>-0.13408250578707001</v>
-      </c>
-      <c r="K123" s="7">
-        <v>0.105794179796769</v>
+      <c r="J123">
+        <v>-0.13862023581660601</v>
+      </c>
+      <c r="K123">
+        <v>4.4967862881505699E-2</v>
       </c>
       <c r="L123" s="5">
         <v>4</v>
@@ -5833,11 +5831,11 @@
       <c r="I124" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J124" s="7">
-        <v>-0.13446729876136099</v>
-      </c>
-      <c r="K124" s="7">
-        <v>8.8291990304236595E-2</v>
+      <c r="J124">
+        <v>-0.13994658995923201</v>
+      </c>
+      <c r="K124">
+        <v>5.0910774666698203E-2</v>
       </c>
       <c r="L124" s="5">
         <v>1</v>
@@ -5871,11 +5869,11 @@
       <c r="I125" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J125" s="7">
-        <v>-0.156546249826468</v>
-      </c>
-      <c r="K125" s="7">
-        <v>6.5312218888272405E-2</v>
+      <c r="J125">
+        <v>-0.16466515058839701</v>
+      </c>
+      <c r="K125">
+        <v>3.1206010841571399E-2</v>
       </c>
       <c r="L125" s="5">
         <v>1</v>
@@ -5909,11 +5907,11 @@
       <c r="I126" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J126" s="7">
-        <v>-0.16205693553325401</v>
-      </c>
-      <c r="K126" s="7">
-        <v>6.8688951529620706E-2</v>
+      <c r="J126">
+        <v>-0.15532813825934499</v>
+      </c>
+      <c r="K126">
+        <v>5.4226280280569902E-2</v>
       </c>
       <c r="L126" s="5">
         <v>2</v>
@@ -5947,11 +5945,11 @@
       <c r="I127" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="J127" s="7">
-        <v>-0.15327246754623799</v>
-      </c>
-      <c r="K127" s="7">
-        <v>0.102242914371746</v>
+      <c r="J127">
+        <v>-0.135097786202552</v>
+      </c>
+      <c r="K127">
+        <v>5.6466408674957599E-2</v>
       </c>
       <c r="L127" s="5">
         <v>2</v>
@@ -5985,11 +5983,11 @@
       <c r="I128" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J128" s="7">
-        <v>-0.15234896675955201</v>
-      </c>
-      <c r="K128" s="7">
-        <v>0.10395878015522</v>
+      <c r="J128">
+        <v>-0.135269879285671</v>
+      </c>
+      <c r="K128">
+        <v>7.3700861871852097E-2</v>
       </c>
       <c r="L128" s="5">
         <v>3</v>
@@ -6023,11 +6021,11 @@
       <c r="I129" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J129" s="7">
-        <v>-0.13408250578707001</v>
-      </c>
-      <c r="K129" s="7">
-        <v>0.105794179796769</v>
+      <c r="J129">
+        <v>-0.13862023581660601</v>
+      </c>
+      <c r="K129">
+        <v>4.4967862881505699E-2</v>
       </c>
       <c r="L129" s="5">
         <v>4</v>
@@ -6061,11 +6059,11 @@
       <c r="I130" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J130" s="7">
-        <v>-0.13446729876136099</v>
-      </c>
-      <c r="K130" s="7">
-        <v>8.8291990304236595E-2</v>
+      <c r="J130">
+        <v>-0.13994658995923201</v>
+      </c>
+      <c r="K130">
+        <v>5.0910774666698203E-2</v>
       </c>
       <c r="L130" s="5">
         <v>1</v>
@@ -6099,11 +6097,11 @@
       <c r="I131" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J131" s="7">
-        <v>-0.156546249826468</v>
-      </c>
-      <c r="K131" s="7">
-        <v>6.5312218888272405E-2</v>
+      <c r="J131">
+        <v>-0.16466515058839701</v>
+      </c>
+      <c r="K131">
+        <v>3.1206010841571399E-2</v>
       </c>
       <c r="L131" s="5">
         <v>1</v>
@@ -6137,11 +6135,11 @@
       <c r="I132" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J132" s="7">
-        <v>-0.16205693553325401</v>
-      </c>
-      <c r="K132" s="7">
-        <v>6.8688951529620706E-2</v>
+      <c r="J132">
+        <v>-0.15532813825934499</v>
+      </c>
+      <c r="K132">
+        <v>5.4226280280569902E-2</v>
       </c>
       <c r="L132" s="5">
         <v>2</v>
@@ -6175,11 +6173,11 @@
       <c r="I133" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="J133" s="7">
-        <v>-0.15327246754623799</v>
-      </c>
-      <c r="K133" s="7">
-        <v>0.102242914371746</v>
+      <c r="J133">
+        <v>-0.135097786202552</v>
+      </c>
+      <c r="K133">
+        <v>5.6466408674957599E-2</v>
       </c>
       <c r="L133" s="5">
         <v>2</v>
@@ -6213,11 +6211,11 @@
       <c r="I134" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J134" s="7">
-        <v>-0.13446729876136099</v>
-      </c>
-      <c r="K134" s="7">
-        <v>8.8291990304236595E-2</v>
+      <c r="J134">
+        <v>-0.13994658995923201</v>
+      </c>
+      <c r="K134">
+        <v>5.0910774666698203E-2</v>
       </c>
       <c r="L134" s="5">
         <v>1</v>
@@ -6251,11 +6249,11 @@
       <c r="I135" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J135" s="7">
-        <v>-0.156546249826468</v>
-      </c>
-      <c r="K135" s="7">
-        <v>6.5312218888272405E-2</v>
+      <c r="J135">
+        <v>-0.16466515058839701</v>
+      </c>
+      <c r="K135">
+        <v>3.1206010841571399E-2</v>
       </c>
       <c r="L135" s="5">
         <v>1</v>
@@ -6289,11 +6287,11 @@
       <c r="I136" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J136" s="7">
-        <v>-0.16205693553325401</v>
-      </c>
-      <c r="K136" s="7">
-        <v>6.8688951529620706E-2</v>
+      <c r="J136">
+        <v>-0.15532813825934499</v>
+      </c>
+      <c r="K136">
+        <v>5.4226280280569902E-2</v>
       </c>
       <c r="L136" s="5">
         <v>2</v>
@@ -6327,11 +6325,11 @@
       <c r="I137" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="J137" s="7">
-        <v>-0.15327246754623799</v>
-      </c>
-      <c r="K137" s="7">
-        <v>0.102242914371746</v>
+      <c r="J137">
+        <v>-0.135097786202552</v>
+      </c>
+      <c r="K137">
+        <v>5.6466408674957599E-2</v>
       </c>
       <c r="L137" s="5">
         <v>2</v>
@@ -6365,11 +6363,11 @@
       <c r="I138" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J138" s="7">
-        <v>-0.15234896675955201</v>
-      </c>
-      <c r="K138" s="7">
-        <v>0.10395878015522</v>
+      <c r="J138">
+        <v>-0.135269879285671</v>
+      </c>
+      <c r="K138">
+        <v>7.3700861871852097E-2</v>
       </c>
       <c r="L138" s="5">
         <v>3</v>
@@ -6403,11 +6401,11 @@
       <c r="I139" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J139" s="7">
-        <v>-0.13408250578707001</v>
-      </c>
-      <c r="K139" s="7">
-        <v>0.105794179796769</v>
+      <c r="J139">
+        <v>-0.13862023581660601</v>
+      </c>
+      <c r="K139">
+        <v>4.4967862881505699E-2</v>
       </c>
       <c r="L139" s="5">
         <v>4</v>
@@ -6441,11 +6439,11 @@
       <c r="I140" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J140" s="7">
-        <v>-0.13446729876136099</v>
-      </c>
-      <c r="K140" s="7">
-        <v>8.8291990304236595E-2</v>
+      <c r="J140">
+        <v>-0.13994658995923201</v>
+      </c>
+      <c r="K140">
+        <v>5.0910774666698203E-2</v>
       </c>
       <c r="L140" s="5">
         <v>1</v>
@@ -6479,11 +6477,11 @@
       <c r="I141" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J141" s="7">
-        <v>-0.156546249826468</v>
-      </c>
-      <c r="K141" s="7">
-        <v>6.5312218888272405E-2</v>
+      <c r="J141">
+        <v>-0.16466515058839701</v>
+      </c>
+      <c r="K141">
+        <v>3.1206010841571399E-2</v>
       </c>
       <c r="L141" s="5">
         <v>1</v>
@@ -6517,11 +6515,11 @@
       <c r="I142" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J142" s="7">
-        <v>-0.16205693553325401</v>
-      </c>
-      <c r="K142" s="7">
-        <v>6.8688951529620706E-2</v>
+      <c r="J142">
+        <v>-0.15532813825934499</v>
+      </c>
+      <c r="K142">
+        <v>5.4226280280569902E-2</v>
       </c>
       <c r="L142" s="5">
         <v>2</v>
@@ -6555,11 +6553,11 @@
       <c r="I143" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="J143" s="7">
-        <v>-0.15327246754623799</v>
-      </c>
-      <c r="K143" s="7">
-        <v>0.102242914371746</v>
+      <c r="J143">
+        <v>-0.135097786202552</v>
+      </c>
+      <c r="K143">
+        <v>5.6466408674957599E-2</v>
       </c>
       <c r="L143" s="5">
         <v>2</v>
@@ -6593,11 +6591,11 @@
       <c r="I144" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J144" s="7">
-        <v>-0.15234896675955201</v>
-      </c>
-      <c r="K144" s="7">
-        <v>0.10395878015522</v>
+      <c r="J144">
+        <v>-0.135269879285671</v>
+      </c>
+      <c r="K144">
+        <v>7.3700861871852097E-2</v>
       </c>
       <c r="L144" s="5">
         <v>3</v>
@@ -6631,11 +6629,11 @@
       <c r="I145" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J145" s="7">
-        <v>-0.13408250578707001</v>
-      </c>
-      <c r="K145" s="7">
-        <v>0.105794179796769</v>
+      <c r="J145">
+        <v>-0.13862023581660601</v>
+      </c>
+      <c r="K145">
+        <v>4.4967862881505699E-2</v>
       </c>
       <c r="L145" s="5">
         <v>4</v>
@@ -6669,11 +6667,11 @@
       <c r="I146" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J146" s="7">
-        <v>-0.13446729876136099</v>
-      </c>
-      <c r="K146" s="7">
-        <v>8.8291990304236595E-2</v>
+      <c r="J146">
+        <v>-0.13994658995923201</v>
+      </c>
+      <c r="K146">
+        <v>5.0910774666698203E-2</v>
       </c>
       <c r="L146" s="5">
         <v>1</v>
@@ -6707,11 +6705,11 @@
       <c r="I147" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J147" s="7">
-        <v>-0.156546249826468</v>
-      </c>
-      <c r="K147" s="7">
-        <v>6.5312218888272405E-2</v>
+      <c r="J147">
+        <v>-0.16466515058839701</v>
+      </c>
+      <c r="K147">
+        <v>3.1206010841571399E-2</v>
       </c>
       <c r="L147" s="5">
         <v>1</v>
@@ -6745,11 +6743,11 @@
       <c r="I148" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J148" s="7">
-        <v>-0.16205693553325401</v>
-      </c>
-      <c r="K148" s="7">
-        <v>6.8688951529620706E-2</v>
+      <c r="J148">
+        <v>-0.15532813825934499</v>
+      </c>
+      <c r="K148">
+        <v>5.4226280280569902E-2</v>
       </c>
       <c r="L148" s="5">
         <v>2</v>
@@ -6783,11 +6781,11 @@
       <c r="I149" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="J149" s="7">
-        <v>-0.15327246754623799</v>
-      </c>
-      <c r="K149" s="7">
-        <v>0.102242914371746</v>
+      <c r="J149">
+        <v>-0.135097786202552</v>
+      </c>
+      <c r="K149">
+        <v>5.6466408674957599E-2</v>
       </c>
       <c r="L149" s="5">
         <v>2</v>
@@ -6821,11 +6819,11 @@
       <c r="I150" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J150" s="7">
-        <v>-0.15234896675955201</v>
-      </c>
-      <c r="K150" s="7">
-        <v>0.10395878015522</v>
+      <c r="J150">
+        <v>-0.135269879285671</v>
+      </c>
+      <c r="K150">
+        <v>7.3700861871852097E-2</v>
       </c>
       <c r="L150" s="5">
         <v>3</v>
@@ -6859,11 +6857,11 @@
       <c r="I151" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J151" s="7">
-        <v>-0.13408250578707001</v>
-      </c>
-      <c r="K151" s="7">
-        <v>0.105794179796769</v>
+      <c r="J151">
+        <v>-0.13862023581660601</v>
+      </c>
+      <c r="K151">
+        <v>4.4967862881505699E-2</v>
       </c>
       <c r="L151" s="5">
         <v>4</v>
@@ -6897,11 +6895,11 @@
       <c r="I152" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J152" s="7">
-        <v>-0.13446729876136099</v>
-      </c>
-      <c r="K152" s="7">
-        <v>8.8291990304236595E-2</v>
+      <c r="J152">
+        <v>-0.13994658995923201</v>
+      </c>
+      <c r="K152">
+        <v>5.0910774666698203E-2</v>
       </c>
       <c r="L152" s="5">
         <v>1</v>
@@ -6935,11 +6933,11 @@
       <c r="I153" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J153" s="7">
-        <v>-0.156546249826468</v>
-      </c>
-      <c r="K153" s="7">
-        <v>6.5312218888272405E-2</v>
+      <c r="J153">
+        <v>-0.16466515058839701</v>
+      </c>
+      <c r="K153">
+        <v>3.1206010841571399E-2</v>
       </c>
       <c r="L153" s="5">
         <v>1</v>
@@ -6973,11 +6971,11 @@
       <c r="I154" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J154" s="7">
-        <v>-7.6564649130397802E-2</v>
-      </c>
-      <c r="K154" s="7">
-        <v>5.8450084795667198E-2</v>
+      <c r="J154">
+        <v>-9.5577147474716198E-2</v>
+      </c>
+      <c r="K154">
+        <v>3.6762637088853203E-2</v>
       </c>
       <c r="L154" s="5">
         <v>5</v>
@@ -7011,11 +7009,11 @@
       <c r="I155" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="J155" s="7">
-        <v>-4.96215105824118E-2</v>
-      </c>
-      <c r="K155" s="7">
-        <v>5.0789567638136003E-2</v>
+      <c r="J155">
+        <v>-5.3105328268191698E-2</v>
+      </c>
+      <c r="K155">
+        <v>3.1410774881526701E-2</v>
       </c>
       <c r="L155" s="5">
         <v>2</v>
@@ -7049,11 +7047,11 @@
       <c r="I156" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J156" s="7">
-        <v>-4.4250515440180799E-2</v>
-      </c>
-      <c r="K156" s="7">
-        <v>2.8854565662296501E-2</v>
+      <c r="J156">
+        <v>-4.3647797370192302E-2</v>
+      </c>
+      <c r="K156">
+        <v>1.46968512374572E-2</v>
       </c>
       <c r="L156" s="5">
         <v>5</v>
@@ -7087,11 +7085,11 @@
       <c r="I157" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="J157" s="7">
-        <v>-2.7229269864474898E-2</v>
-      </c>
-      <c r="K157" s="7">
-        <v>1.8098791663990602E-2</v>
+      <c r="J157">
+        <v>-3.5316076917631098E-2</v>
+      </c>
+      <c r="K157">
+        <v>1.5008881437999E-2</v>
       </c>
       <c r="L157" s="5">
         <v>2</v>
@@ -7125,11 +7123,11 @@
       <c r="I158" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J158" s="7">
-        <v>-5.6109752019428499E-2</v>
-      </c>
-      <c r="K158" s="7">
-        <v>5.44054526944871E-2</v>
+      <c r="J158">
+        <v>-5.2220844076916503E-2</v>
+      </c>
+      <c r="K158">
+        <v>3.0419772297489399E-2</v>
       </c>
       <c r="L158" s="5">
         <v>2</v>
@@ -7149,7 +7147,7 @@
         <v>187</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>188</v>
@@ -7163,11 +7161,11 @@
       <c r="I159" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="J159" s="7">
-        <v>-7.24765998552271E-2</v>
-      </c>
-      <c r="K159" s="7">
-        <v>6.9231132020639199E-2</v>
+      <c r="J159">
+        <v>-8.0656667541745303E-2</v>
+      </c>
+      <c r="K159">
+        <v>4.4489071569933501E-2</v>
       </c>
       <c r="L159" s="5">
         <v>1</v>
@@ -7187,7 +7185,7 @@
         <v>187</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>188</v>
@@ -7201,11 +7199,11 @@
       <c r="I160" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="J160" s="7">
-        <v>-3.4108603577750599E-2</v>
-      </c>
-      <c r="K160" s="7">
-        <v>5.4472604986049597E-2</v>
+      <c r="J160">
+        <v>-3.8699561713252E-2</v>
+      </c>
+      <c r="K160">
+        <v>2.4359819030271599E-2</v>
       </c>
       <c r="L160" s="5">
         <v>5</v>
@@ -7225,7 +7223,7 @@
         <v>187</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>188</v>
@@ -7239,11 +7237,11 @@
       <c r="I161" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="J161" s="7">
-        <v>-1.13868461840249E-2</v>
-      </c>
-      <c r="K161" s="7">
-        <v>1.4812998359451299E-2</v>
+      <c r="J161">
+        <v>-1.02655559708807E-2</v>
+      </c>
+      <c r="K161">
+        <v>1.0437638986979299E-2</v>
       </c>
       <c r="L161" s="5">
         <v>5</v>
@@ -7263,7 +7261,7 @@
         <v>187</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>188</v>
@@ -7277,11 +7275,11 @@
       <c r="I162" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="J162" s="7">
-        <v>-4.7872546665290699E-2</v>
-      </c>
-      <c r="K162" s="7">
-        <v>6.9050525908336893E-2</v>
+      <c r="J162">
+        <v>-5.25269077823938E-2</v>
+      </c>
+      <c r="K162">
+        <v>3.2848455744758101E-2</v>
       </c>
       <c r="L162" s="5">
         <v>4</v>
@@ -7301,7 +7299,7 @@
         <v>187</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>188</v>
@@ -7315,11 +7313,11 @@
       <c r="I163" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="J163" s="7">
-        <v>-3.5621399348931403E-2</v>
-      </c>
-      <c r="K163" s="7">
-        <v>5.56842824121049E-2</v>
+      <c r="J163">
+        <v>-3.3149038813388002E-2</v>
+      </c>
+      <c r="K163">
+        <v>2.79694530873268E-2</v>
       </c>
       <c r="L163" s="5">
         <v>1</v>
@@ -7339,7 +7337,7 @@
         <v>187</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>188</v>
@@ -7353,11 +7351,11 @@
       <c r="I164" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="J164" s="7">
-        <v>-4.5049864911132199E-2</v>
-      </c>
-      <c r="K164" s="7">
-        <v>6.9188207756170003E-2</v>
+      <c r="J164">
+        <v>-4.1258298526214099E-2</v>
+      </c>
+      <c r="K164">
+        <v>3.1428191539943799E-2</v>
       </c>
       <c r="L164" s="5">
         <v>1</v>
